--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRABHA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C710-A8AA-406F-BDB9-46EAF7546CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B35D55-EF34-4771-9D8B-6EB458E53C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFCA51A4-3222-4487-A2CE-FD96F48EDAC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Request Uri</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>Request Headers</t>
-  </si>
-  <si>
-    <t>$limit,1</t>
-  </si>
-  <si>
-    <t>"content-type": "application/json; charset=utf-8"</t>
-  </si>
-  <si>
-    <t>data[0].name,data[1].name,data[2].name</t>
   </si>
   <si>
     <t>{
@@ -98,20 +89,49 @@
 }</t>
   </si>
   <si>
+    <t>$limit,3</t>
+  </si>
+  <si>
+    <t>data[0].name="Duracell - AAA Batteries (4-Pack)",
+data[1].name="Duracell - AA 1.5V CopperTop Batteries (4-Pack)",
+data[2].name="Duracell - AA Batteries (8-Pack)"</t>
+  </si>
+  <si>
+    <t>"content-type": "application/json; charset=utf-8",
+"Content-Encoding": "gzip"</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>{
+"name": "iphone",
+"type": "Smart Phone",
+"price": 1000,
+"shipping": 10,
+"upc": "string",
+"description": "color white, ram 4 gb, processor A12 bionic",
+"manufacturer": "Apple California",
+"model": "iphone 11",
+"url": "string",
+"image": "string"
+}</t>
+  </si>
+  <si>
     <t>{ "name": "iphone",
-"type": "Start Phone", 
-"price": 1000,
-"shipping": 10, 
+"type": "Smart Phone", 
+"price": 1500,
+"shipping": 15, 
 "upc": "string", 
-"description": "color white, ram 4 gb, processor A12 bionic", 
+"description": "color green, ram 8 gb, processor A15 bionic", 
 "manufacturer": "Apple California", 
-"model": "iphone 11", 
+"model": "iphone 13", 
 "url": "string", 
 "image": "string" 
 }</t>
   </si>
   <si>
-    <t>id,</t>
+    <t>PUT</t>
   </si>
 </sst>
 </file>
@@ -197,9 +217,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -208,6 +225,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE8CAD2-FA79-40AA-A2DB-10110B608334}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,9 +554,9 @@
     <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" customWidth="1"/>
     <col min="4" max="4" width="52.21875" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="60.5546875" customWidth="1"/>
     <col min="8" max="8" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -571,18 +591,18 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3">
         <v>200</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -594,12 +614,12 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3">
@@ -609,54 +629,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="3">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
-        <v>201</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>201</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7">
+    </row>
+    <row r="6" spans="1:7" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6">
         <v>200400</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -3,38 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRABHA\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B35D55-EF34-4771-9D8B-6EB458E53C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B54CE3C-D6DD-49F4-AFAC-126A97D7789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFCA51A4-3222-4487-A2CE-FD96F48EDAC3}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" xr2:uid="{EFCA51A4-3222-4487-A2CE-FD96F48EDAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Request Uri</t>
   </si>
@@ -92,15 +79,6 @@
     <t>$limit,3</t>
   </si>
   <si>
-    <t>data[0].name="Duracell - AAA Batteries (4-Pack)",
-data[1].name="Duracell - AA 1.5V CopperTop Batteries (4-Pack)",
-data[2].name="Duracell - AA Batteries (8-Pack)"</t>
-  </si>
-  <si>
-    <t>"content-type": "application/json; charset=utf-8",
-"Content-Encoding": "gzip"</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -132,6 +110,17 @@
   </si>
   <si>
     <t>PUT</t>
+  </si>
+  <si>
+    <t>data[0].name=Duracell - AAA Batteries (4-Pack),
+data[1].name=Duracell - AA 1.5V CopperTop Batteries (4-Pack),
+data[2].name=Duracell - AA Batteries (8-Pack)</t>
+  </si>
+  <si>
+    <t>content-type: application/json;  charset=utf-8</t>
+  </si>
+  <si>
+    <t>content-type:application/json; charset=utf-8,Connection: keep-alive</t>
   </si>
 </sst>
 </file>
@@ -206,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -228,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,14 +537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE8CAD2-FA79-40AA-A2DB-10110B608334}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" customWidth="1"/>
     <col min="4" max="4" width="52.21875" customWidth="1"/>
     <col min="5" max="5" width="40.77734375" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
@@ -590,8 +582,8 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -603,7 +595,7 @@
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -613,11 +605,11 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -631,19 +623,19 @@
     </row>
     <row r="4" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>200</v>
@@ -659,17 +651,17 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
@@ -683,16 +675,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>200400</v>
+        <v>200</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
